--- a/feature/fixer-profil-bundle-cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
+++ b/feature/fixer-profil-bundle-cpts/ig/StructureDefinition-sas-cpts-slot-servicetype-aggregator.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-15T07:43:43+00:00</t>
+    <t>2024-10-15T07:48:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
